--- a/data_backend/resources/domain_data/data_intein.xlsx
+++ b/data_backend/resources/domain_data/data_intein.xlsx
@@ -316,10 +316,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -352,10 +352,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2280</v>
+        <v>2307</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -367,10 +367,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2274</v>
+        <v>2298</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -382,10 +382,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -397,10 +397,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2151</v>
+        <v>2175</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -412,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -442,10 +442,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1035</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -454,13 +454,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1036</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1704</v>
+        <v>1059</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -469,13 +469,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>1060</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1497</v>
+        <v>1725</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -484,13 +484,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1410</v>
+        <v>1542</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -499,13 +499,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>759</v>
+        <v>1430</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -514,13 +514,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>26</v>
+        <v>784</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -532,10 +532,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>715</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>982</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -544,13 +544,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>740</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>693</v>
+        <v>1007</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -559,13 +559,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>30</v>
+        <v>707</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -577,12 +577,27 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>503</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>838</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>517</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>852</v>
+      </c>
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data_backend/resources/domain_data/data_intein.xlsx
+++ b/data_backend/resources/domain_data/data_intein.xlsx
@@ -319,7 +319,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,7 +454,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>70</v>
@@ -469,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1060</v>
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>46</v>
@@ -499,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>21</v>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>226</v>
@@ -529,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>26</v>
@@ -544,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>740</v>
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>15</v>
@@ -574,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>15</v>
@@ -589,7 +589,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>517</v>

--- a/data_backend/resources/domain_data/data_intein.xlsx
+++ b/data_backend/resources/domain_data/data_intein.xlsx
@@ -319,7 +319,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>784</v>
